--- a/Резы/Респа для ПЕ-92б на 2020 год.xlsx
+++ b/Резы/Респа для ПЕ-92б на 2020 год.xlsx
@@ -643,7 +643,7 @@
     <col width="76.39999999999999" customWidth="1" min="4" max="4"/>
     <col width="93.8" customWidth="1" min="5" max="5"/>
     <col width="79.3" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
     <col width="26.5" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -1246,8 +1246,11 @@
         </is>
       </c>
       <c r="F20" s="12" t="n"/>
-      <c r="G20" s="6" t="n">
-        <v>414</v>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>414
+307</t>
+        </is>
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
@@ -1279,7 +1282,8 @@
       </c>
       <c r="G21" s="6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>I
+207</t>
         </is>
       </c>
       <c r="H21" s="6" t="inlineStr">
@@ -1314,7 +1318,7 @@
       <c r="G22" s="6" t="inlineStr">
         <is>
           <t>307
-301, 310</t>
+301</t>
         </is>
       </c>
       <c r="H22" s="6" t="inlineStr">
@@ -1478,7 +1482,7 @@
     <col width="76.39999999999999" customWidth="1" min="6" max="6"/>
     <col width="29.5" customWidth="1" min="7" max="7"/>
     <col width="30" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
     <col width="26.5" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -2091,7 +2095,7 @@
       <c r="G19" s="13" t="n"/>
       <c r="H19" s="12" t="n"/>
       <c r="I19" s="6" t="n">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="J19" s="6" t="inlineStr">
         <is>
@@ -2149,10 +2153,8 @@
       <c r="F21" s="13" t="n"/>
       <c r="G21" s="13" t="n"/>
       <c r="H21" s="12" t="n"/>
-      <c r="I21" s="6" t="inlineStr">
-        <is>
-          <t>301, 310</t>
-        </is>
+      <c r="I21" s="6" t="n">
+        <v>301</v>
       </c>
       <c r="J21" s="18" t="n"/>
     </row>
@@ -2919,8 +2921,10 @@
         </is>
       </c>
       <c r="G18" s="4" t="n"/>
-      <c r="H18" s="6" t="n">
-        <v>410</v>
+      <c r="H18" s="6" t="inlineStr">
+        <is>
+          <t>410, 404</t>
+        </is>
       </c>
       <c r="I18" s="6" t="inlineStr">
         <is>
@@ -2947,7 +2951,7 @@
       <c r="F19" s="12" t="n"/>
       <c r="G19" s="4" t="n"/>
       <c r="H19" s="6" t="n">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="I19" s="6" t="inlineStr">
         <is>
@@ -2979,7 +2983,8 @@
       <c r="G20" s="4" t="n"/>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>I
+307</t>
         </is>
       </c>
       <c r="I20" s="6" t="inlineStr">
@@ -3016,8 +3021,8 @@
       <c r="G21" s="4" t="n"/>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>301, 310
-403</t>
+          <t>301
+310</t>
         </is>
       </c>
       <c r="I21" s="18" t="n"/>
@@ -3349,8 +3354,11 @@
         </is>
       </c>
       <c r="G8" s="12" t="n"/>
-      <c r="H8" s="6" t="n">
-        <v>307</v>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>307
+414</t>
+        </is>
       </c>
       <c r="I8" s="6" t="inlineStr">
         <is>
@@ -3660,7 +3668,7 @@
       <c r="E18" s="12" t="n"/>
       <c r="F18" s="4" t="n"/>
       <c r="H18" s="6" t="n">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I18" s="6" t="inlineStr">
         <is>
@@ -3687,7 +3695,7 @@
       <c r="F19" s="12" t="n"/>
       <c r="G19" s="4" t="n"/>
       <c r="H19" s="6" t="n">
-        <v>414</v>
+        <v>307</v>
       </c>
       <c r="I19" s="6" t="inlineStr">
         <is>
@@ -3713,11 +3721,7 @@
       <c r="E20" s="13" t="n"/>
       <c r="F20" s="12" t="n"/>
       <c r="G20" s="4" t="n"/>
-      <c r="H20" s="6" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
+      <c r="H20" s="18" t="n"/>
       <c r="I20" s="18" t="n"/>
     </row>
     <row r="21" ht="51" customHeight="1">
@@ -3742,8 +3746,11 @@
           <t>Математика: ПР (общ)</t>
         </is>
       </c>
-      <c r="H21" s="6" t="n">
-        <v>403</v>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>310
+403</t>
+        </is>
       </c>
       <c r="I21" s="6" t="inlineStr">
         <is>
@@ -3780,7 +3787,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="E4:G4"/>
@@ -3803,6 +3810,7 @@
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A14:A17"/>

--- a/Резы/Респа для ПЕ-92б на 2020 год.xlsx
+++ b/Резы/Респа для ПЕ-92б на 2020 год.xlsx
@@ -56,7 +56,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,24 +114,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -159,49 +159,70 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -221,7 +242,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,7 +276,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1478,8 +1502,8 @@
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="20.5" customWidth="1" min="3" max="3"/>
     <col width="93.8" customWidth="1" min="4" max="4"/>
-    <col width="67.7" customWidth="1" min="5" max="5"/>
-    <col width="76.39999999999999" customWidth="1" min="6" max="6"/>
+    <col width="76.39999999999999" customWidth="1" min="5" max="5"/>
+    <col width="44.5" customWidth="1" min="6" max="6"/>
     <col width="29.5" customWidth="1" min="7" max="7"/>
     <col width="30" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
@@ -2201,11 +2225,12 @@
         </is>
       </c>
       <c r="D23" s="4" t="n"/>
-      <c r="F23" s="7" t="inlineStr">
+      <c r="E23" s="7" t="inlineStr">
         <is>
           <t>Структуры и алгоритмы обработка данных: лекция (общ)</t>
         </is>
       </c>
+      <c r="F23" s="20" t="n"/>
       <c r="G23" s="4" t="n"/>
       <c r="I23" s="6" t="n">
         <v>207</v>
@@ -2227,7 +2252,8 @@
         </is>
       </c>
       <c r="D24" s="4" t="n"/>
-      <c r="F24" s="17" t="n"/>
+      <c r="E24" s="21" t="n"/>
+      <c r="F24" s="22" t="n"/>
       <c r="G24" s="4" t="n"/>
       <c r="I24" s="18" t="n"/>
       <c r="J24" s="18" t="n"/>
@@ -2269,7 +2295,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="35">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
@@ -2292,12 +2318,10 @@
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:F24"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="A23:A25"/>
